--- a/鶴山さんポートフォリオ完成.xlsx
+++ b/鶴山さんポートフォリオ完成.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keita\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205E8628-9D61-4973-851D-4120CB28EB3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670183C4-FB82-46E7-8F37-EB36248258D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{19D79A25-7A31-4268-AC4B-19B71E92CF7E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="152">
   <si>
     <t>甘味</t>
     <rPh sb="0" eb="2">
@@ -536,52 +536,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>卵(卵白)</t>
-    <rPh sb="0" eb="1">
-      <t>タマゴ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ランパク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>卵(卵黄)</t>
-    <rPh sb="0" eb="1">
-      <t>タマゴ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ランオウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゆで卵(卵黄）(茹で)</t>
-    <rPh sb="2" eb="3">
-      <t>タマゴ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ランオウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ユ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゆで卵(卵白）(茹で)</t>
-    <rPh sb="2" eb="3">
-      <t>タマゴ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ランパク</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ユ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>卵かけご飯</t>
     <rPh sb="0" eb="1">
       <t>タマゴ</t>
@@ -1184,6 +1138,343 @@
     <rPh sb="2" eb="3">
       <t>ズ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>卵焼き(塩)</t>
+    <rPh sb="0" eb="2">
+      <t>タマゴヤ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>豚肉ヒレ塩コショウ焼き</t>
+    <rPh sb="0" eb="2">
+      <t>ブタニク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シオ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>豚肉ヒレ塩コショウ焼き(わさび)</t>
+    <rPh sb="0" eb="2">
+      <t>ブタニク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シオ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>塩鯖焼き</t>
+    <rPh sb="0" eb="1">
+      <t>シオ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>サバ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鯖(レモンペッパー焼き)</t>
+    <rPh sb="0" eb="1">
+      <t>サバ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>国産豚ヒレ(焼き)</t>
+    <rPh sb="0" eb="2">
+      <t>コクサン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブタ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レモンペッパー(株式会社オーバーシーズ)</t>
+    <rPh sb="8" eb="10">
+      <t>カブシキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鯖(焼き)</t>
+    <rPh sb="2" eb="3">
+      <t>ヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>豚の角煮</t>
+    <rPh sb="0" eb="1">
+      <t>ブタ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>豚肉肩ロース(アメリカ産)(焼き)</t>
+    <rPh sb="0" eb="2">
+      <t>ブタニク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>サン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>白ネギ(長ネギ)(青い部分)(焼き)</t>
+    <rPh sb="0" eb="1">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>白ネギ(長ネギ)(白い部分)(焼き)</t>
+    <rPh sb="0" eb="1">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>片栗粉</t>
+    <rPh sb="0" eb="3">
+      <t>カタクリコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>牛肉の甘辛焼き</t>
+    <rPh sb="0" eb="2">
+      <t>ギュウニク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>アマカラ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>牛肉細切れ(焼き)</t>
+    <rPh sb="0" eb="2">
+      <t>ギュウニク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コマギ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>卵(卵白)(生)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>卵(卵黄)(生)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゆで卵(卵白)(茹で)</t>
+    <rPh sb="8" eb="9">
+      <t>ユ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゆで卵(卵黄)(茹で)</t>
+    <rPh sb="8" eb="9">
+      <t>ユ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目玉焼き(醤油)</t>
+    <rPh sb="0" eb="3">
+      <t>メダマヤ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウユ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>卵(卵黄)(焼き)</t>
+    <rPh sb="0" eb="1">
+      <t>タマゴ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ランオウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>卵(卵白)(焼き)</t>
+    <rPh sb="0" eb="1">
+      <t>タマゴ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ランパク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>豚汁</t>
+    <rPh sb="0" eb="2">
+      <t>トンジル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大根</t>
+    <rPh sb="0" eb="2">
+      <t>ダイコン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>国産豚肉かたロース切り落とし(焼き)</t>
+    <rPh sb="0" eb="2">
+      <t>コクサン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブタ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ニク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">無添加米こうじみそ(TOPVALU) </t>
+    <rPh sb="0" eb="3">
+      <t>ムテンカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>コメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">板こんにゃく(黒)(茹で)(TOPVALU) </t>
+    <rPh sb="0" eb="1">
+      <t>イタ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ユ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おろし生しょうが(ハウス食品)</t>
+    <rPh sb="3" eb="4">
+      <t>ナマ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショクヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ごま油</t>
+    <rPh sb="2" eb="3">
+      <t>アブラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>素洗いごぼう(焼き)</t>
+    <rPh sb="0" eb="1">
+      <t>ソ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>白米</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1216,12 +1507,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -1264,14 +1561,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1284,6 +1578,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1600,10 +1900,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7E4F336-9787-4FF2-9CC9-A43C8B73B73A}">
-  <dimension ref="A1:AI35"/>
+  <dimension ref="A1:AI44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1615,116 +1916,116 @@
     <col min="19" max="19" width="46.4140625" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="45.08203125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="43.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.5" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="19.5" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="21.9140625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="24.9140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AH1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AI1" s="6" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1801,7 +2102,7 @@
       <c r="X2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Y2" s="2" t="s">
         <v>45</v>
       </c>
       <c r="Z2" s="1" t="s">
@@ -1874,16 +2175,16 @@
       <c r="R3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="T3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="U3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="V3" s="3" t="s">
         <v>57</v>
       </c>
       <c r="W3" s="1" t="s">
@@ -1952,13 +2253,13 @@
       <c r="O4" s="1">
         <v>3</v>
       </c>
-      <c r="P4" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="R4" s="4" t="s">
+      <c r="P4" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="R4" s="3" t="s">
         <v>50</v>
       </c>
       <c r="T4" s="1"/>
@@ -1980,7 +2281,7 @@
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -2024,16 +2325,16 @@
       <c r="O5" s="1">
         <v>3</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="P5" s="3" t="s">
         <v>58</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="S5" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="S5" s="3" t="s">
         <v>55</v>
       </c>
       <c r="T5" s="1"/>
@@ -2055,7 +2356,7 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B6" s="1">
         <v>4</v>
@@ -2099,22 +2400,22 @@
       <c r="O6" s="1">
         <v>4</v>
       </c>
-      <c r="P6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="R6" s="4" t="s">
+      <c r="P6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="R6" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="S6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="T6" s="4" t="s">
+      <c r="T6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="U6" s="4" t="s">
+      <c r="U6" s="3" t="s">
         <v>54</v>
       </c>
       <c r="V6" s="1"/>
@@ -2134,7 +2435,7 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -2178,11 +2479,11 @@
       <c r="O7" s="1">
         <v>3</v>
       </c>
-      <c r="P7" s="4" t="s">
-        <v>69</v>
+      <c r="P7" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
@@ -2205,7 +2506,7 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
@@ -2253,15 +2554,15 @@
         <v>58</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="T8" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="T8" s="3" t="s">
         <v>55</v>
       </c>
       <c r="U8" s="1"/>
@@ -2281,8 +2582,8 @@
       <c r="AI8" s="1"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="5" t="s">
-        <v>72</v>
+      <c r="A9" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="B9" s="1">
         <v>5</v>
@@ -2326,17 +2627,17 @@
       <c r="O9" s="1">
         <v>6</v>
       </c>
-      <c r="P9" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>74</v>
+      <c r="P9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="R9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="S9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
@@ -2356,1541 +2657,2090 @@
       <c r="AI9" s="1"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="5">
-        <v>3</v>
-      </c>
-      <c r="C10" s="5">
-        <v>3</v>
-      </c>
-      <c r="D10" s="5">
-        <v>2</v>
-      </c>
-      <c r="E10" s="5">
-        <v>2</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5">
-        <v>5</v>
-      </c>
-      <c r="H10" s="5">
-        <v>2</v>
-      </c>
-      <c r="I10" s="5">
-        <v>6</v>
-      </c>
-      <c r="J10" s="5">
-        <v>3</v>
-      </c>
-      <c r="K10" s="5">
-        <v>3</v>
-      </c>
-      <c r="L10" s="5">
-        <v>7</v>
-      </c>
-      <c r="M10" s="5">
-        <v>2</v>
-      </c>
-      <c r="N10" s="5">
+      <c r="A10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="4">
+        <v>3</v>
+      </c>
+      <c r="C10" s="4">
+        <v>3</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>5</v>
+      </c>
+      <c r="H10" s="4">
+        <v>2</v>
+      </c>
+      <c r="I10" s="4">
+        <v>6</v>
+      </c>
+      <c r="J10" s="4">
+        <v>3</v>
+      </c>
+      <c r="K10" s="4">
+        <v>3</v>
+      </c>
+      <c r="L10" s="4">
+        <v>7</v>
+      </c>
+      <c r="M10" s="4">
+        <v>2</v>
+      </c>
+      <c r="N10" s="4">
         <v>1</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10" s="4">
         <v>3</v>
       </c>
       <c r="P10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R10" s="4" t="s">
+      <c r="R10" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" s="5">
-        <v>4</v>
-      </c>
-      <c r="C11" s="5">
-        <v>3</v>
-      </c>
-      <c r="D11" s="5">
+      <c r="A11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="4">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4">
+        <v>3</v>
+      </c>
+      <c r="D11" s="4">
         <v>1</v>
       </c>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5">
-        <v>6</v>
-      </c>
-      <c r="H11" s="5">
-        <v>2</v>
-      </c>
-      <c r="I11" s="5">
-        <v>7</v>
-      </c>
-      <c r="J11" s="5">
-        <v>3</v>
-      </c>
-      <c r="K11" s="5">
-        <v>4</v>
-      </c>
-      <c r="L11" s="5">
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>6</v>
+      </c>
+      <c r="H11" s="4">
+        <v>2</v>
+      </c>
+      <c r="I11" s="4">
+        <v>7</v>
+      </c>
+      <c r="J11" s="4">
+        <v>3</v>
+      </c>
+      <c r="K11" s="4">
+        <v>4</v>
+      </c>
+      <c r="L11" s="4">
         <v>8</v>
       </c>
-      <c r="M11" s="5">
-        <v>3</v>
-      </c>
-      <c r="N11" s="5">
-        <v>2</v>
-      </c>
-      <c r="O11" s="5">
+      <c r="M11" s="4">
+        <v>3</v>
+      </c>
+      <c r="N11" s="4">
+        <v>2</v>
+      </c>
+      <c r="O11" s="4">
         <v>5</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>58</v>
+        <v>151</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="S11" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="S11" s="3" t="s">
         <v>55</v>
       </c>
       <c r="T11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="5">
-        <v>3</v>
-      </c>
-      <c r="C12" s="5">
-        <v>2</v>
-      </c>
-      <c r="D12" s="5">
-        <v>2</v>
-      </c>
-      <c r="E12" s="5">
+      <c r="A12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="4">
+        <v>3</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2</v>
+      </c>
+      <c r="E12" s="4">
         <v>1</v>
       </c>
-      <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5">
-        <v>5</v>
-      </c>
-      <c r="H12" s="5">
-        <v>2</v>
-      </c>
-      <c r="I12" s="5">
-        <v>5</v>
-      </c>
-      <c r="J12" s="5">
-        <v>5</v>
-      </c>
-      <c r="K12" s="5">
-        <v>4</v>
-      </c>
-      <c r="L12" s="5">
-        <v>7</v>
-      </c>
-      <c r="M12" s="5">
-        <v>4</v>
-      </c>
-      <c r="N12" s="5">
-        <v>3</v>
-      </c>
-      <c r="O12" s="5">
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>5</v>
+      </c>
+      <c r="H12" s="4">
+        <v>2</v>
+      </c>
+      <c r="I12" s="4">
+        <v>5</v>
+      </c>
+      <c r="J12" s="4">
+        <v>5</v>
+      </c>
+      <c r="K12" s="4">
+        <v>4</v>
+      </c>
+      <c r="L12" s="4">
+        <v>7</v>
+      </c>
+      <c r="M12" s="4">
+        <v>4</v>
+      </c>
+      <c r="N12" s="4">
+        <v>3</v>
+      </c>
+      <c r="O12" s="4">
         <v>4</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>58</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="S12" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="S12" s="3" t="s">
         <v>55</v>
       </c>
       <c r="T12" t="s">
-        <v>78</v>
-      </c>
-      <c r="U12" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13" s="5">
-        <v>2</v>
-      </c>
-      <c r="C13" s="5">
-        <v>2</v>
-      </c>
-      <c r="D13" s="5">
+      <c r="A13" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="4">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2</v>
+      </c>
+      <c r="D13" s="4">
         <v>1</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>1</v>
       </c>
-      <c r="F13" s="5">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5">
-        <v>5</v>
-      </c>
-      <c r="H13" s="5">
-        <v>2</v>
-      </c>
-      <c r="I13" s="5">
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>5</v>
+      </c>
+      <c r="H13" s="4">
+        <v>2</v>
+      </c>
+      <c r="I13" s="4">
         <v>8</v>
       </c>
-      <c r="J13" s="5">
-        <v>2</v>
-      </c>
-      <c r="K13" s="5">
-        <v>3</v>
-      </c>
-      <c r="L13" s="5">
+      <c r="J13" s="4">
+        <v>2</v>
+      </c>
+      <c r="K13" s="4">
+        <v>3</v>
+      </c>
+      <c r="L13" s="4">
         <v>8</v>
       </c>
-      <c r="M13" s="5">
-        <v>3</v>
-      </c>
-      <c r="N13" s="5">
+      <c r="M13" s="4">
+        <v>3</v>
+      </c>
+      <c r="N13" s="4">
         <v>1</v>
       </c>
-      <c r="O13" s="5">
-        <v>5</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="R13" s="4" t="s">
+      <c r="O13" s="4">
+        <v>5</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="R13" s="3" t="s">
         <v>55</v>
       </c>
       <c r="S13" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" s="5">
-        <v>3</v>
-      </c>
-      <c r="C14" s="5">
-        <v>2</v>
-      </c>
-      <c r="D14" s="5">
-        <v>0</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0</v>
-      </c>
-      <c r="F14" s="5">
-        <v>0</v>
-      </c>
-      <c r="G14" s="5">
-        <v>6</v>
-      </c>
-      <c r="H14" s="5">
-        <v>0</v>
-      </c>
-      <c r="I14" s="5">
-        <v>7</v>
-      </c>
-      <c r="J14" s="5">
-        <v>3</v>
-      </c>
-      <c r="K14" s="5">
-        <v>5</v>
-      </c>
-      <c r="L14" s="5">
+      <c r="A14" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="4">
+        <v>3</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>6</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>7</v>
+      </c>
+      <c r="J14" s="4">
+        <v>3</v>
+      </c>
+      <c r="K14" s="4">
+        <v>5</v>
+      </c>
+      <c r="L14" s="4">
         <v>8</v>
       </c>
-      <c r="M14" s="5">
-        <v>4</v>
-      </c>
-      <c r="N14" s="5">
-        <v>3</v>
-      </c>
-      <c r="O14" s="5">
+      <c r="M14" s="4">
+        <v>4</v>
+      </c>
+      <c r="N14" s="4">
+        <v>3</v>
+      </c>
+      <c r="O14" s="4">
         <v>4</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>58</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="S14" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="S14" s="3" t="s">
         <v>55</v>
       </c>
       <c r="T14" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" s="5">
-        <v>3</v>
-      </c>
-      <c r="C15" s="5">
-        <v>4</v>
-      </c>
-      <c r="D15" s="5">
-        <v>0</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0</v>
-      </c>
-      <c r="F15" s="5">
-        <v>0</v>
-      </c>
-      <c r="G15" s="5">
-        <v>6</v>
-      </c>
-      <c r="H15" s="5">
-        <v>2</v>
-      </c>
-      <c r="I15" s="5">
-        <v>6</v>
-      </c>
-      <c r="J15" s="5">
-        <v>4</v>
-      </c>
-      <c r="K15" s="5">
+      <c r="A15" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="4">
+        <v>3</v>
+      </c>
+      <c r="C15" s="4">
+        <v>4</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>6</v>
+      </c>
+      <c r="H15" s="4">
+        <v>2</v>
+      </c>
+      <c r="I15" s="4">
+        <v>6</v>
+      </c>
+      <c r="J15" s="4">
+        <v>4</v>
+      </c>
+      <c r="K15" s="4">
         <v>1</v>
       </c>
-      <c r="L15" s="5">
-        <v>5</v>
-      </c>
-      <c r="M15" s="5">
-        <v>3</v>
-      </c>
-      <c r="N15" s="5">
-        <v>0</v>
-      </c>
-      <c r="O15" s="5">
+      <c r="L15" s="4">
+        <v>5</v>
+      </c>
+      <c r="M15" s="4">
+        <v>3</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0</v>
+      </c>
+      <c r="O15" s="4">
         <v>6</v>
       </c>
       <c r="P15" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q15" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="R15" s="4" t="s">
+      <c r="R15" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S15" s="4"/>
+      <c r="S15" s="3"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16" s="5">
+      <c r="A16" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="4">
         <v>1</v>
       </c>
-      <c r="C16" s="5">
-        <v>3</v>
-      </c>
-      <c r="D16" s="5">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5">
-        <v>0</v>
-      </c>
-      <c r="F16" s="5">
-        <v>0</v>
-      </c>
-      <c r="G16" s="5">
-        <v>7</v>
-      </c>
-      <c r="H16" s="5">
-        <v>0</v>
-      </c>
-      <c r="I16" s="5">
-        <v>6</v>
-      </c>
-      <c r="J16" s="5">
-        <v>4</v>
-      </c>
-      <c r="K16" s="5">
-        <v>5</v>
-      </c>
-      <c r="L16" s="5">
-        <v>5</v>
-      </c>
-      <c r="M16" s="5">
-        <v>5</v>
-      </c>
-      <c r="N16" s="5">
-        <v>2</v>
-      </c>
-      <c r="O16" s="5">
+      <c r="C16" s="4">
+        <v>3</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>7</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <v>6</v>
+      </c>
+      <c r="J16" s="4">
+        <v>4</v>
+      </c>
+      <c r="K16" s="4">
+        <v>5</v>
+      </c>
+      <c r="L16" s="4">
+        <v>5</v>
+      </c>
+      <c r="M16" s="4">
+        <v>5</v>
+      </c>
+      <c r="N16" s="4">
+        <v>2</v>
+      </c>
+      <c r="O16" s="4">
         <v>6</v>
       </c>
       <c r="P16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Q16" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B17" s="5">
-        <v>0</v>
-      </c>
-      <c r="C17" s="5">
-        <v>3</v>
-      </c>
-      <c r="D17" s="5">
-        <v>0</v>
-      </c>
-      <c r="E17" s="5">
-        <v>0</v>
-      </c>
-      <c r="F17" s="5">
-        <v>0</v>
-      </c>
-      <c r="G17" s="5">
-        <v>6</v>
-      </c>
-      <c r="H17" s="5">
-        <v>0</v>
-      </c>
-      <c r="I17" s="5">
-        <v>6</v>
-      </c>
-      <c r="J17" s="5">
-        <v>4</v>
-      </c>
-      <c r="K17" s="5">
-        <v>6</v>
-      </c>
-      <c r="L17" s="5">
-        <v>5</v>
-      </c>
-      <c r="M17" s="5">
-        <v>4</v>
-      </c>
-      <c r="N17" s="5">
-        <v>4</v>
-      </c>
-      <c r="O17" s="5">
+      <c r="A17" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4">
+        <v>3</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>6</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>6</v>
+      </c>
+      <c r="J17" s="4">
+        <v>4</v>
+      </c>
+      <c r="K17" s="4">
+        <v>6</v>
+      </c>
+      <c r="L17" s="4">
+        <v>5</v>
+      </c>
+      <c r="M17" s="4">
+        <v>4</v>
+      </c>
+      <c r="N17" s="4">
+        <v>4</v>
+      </c>
+      <c r="O17" s="4">
         <v>6</v>
       </c>
       <c r="P17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Q17" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R17" t="s">
-        <v>93</v>
-      </c>
-      <c r="S17" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="S17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="T17" s="4" t="s">
+      <c r="T17" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="U17" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="V17" s="6" t="s">
-        <v>95</v>
+      <c r="U17" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="V17" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B18" s="5">
-        <v>3</v>
-      </c>
-      <c r="C18" s="5">
-        <v>5</v>
-      </c>
-      <c r="D18" s="5">
-        <v>0</v>
-      </c>
-      <c r="E18" s="5">
-        <v>2</v>
-      </c>
-      <c r="F18" s="5">
-        <v>0</v>
-      </c>
-      <c r="G18" s="5">
-        <v>6</v>
-      </c>
-      <c r="H18" s="5">
-        <v>5</v>
-      </c>
-      <c r="I18" s="5">
-        <v>6</v>
-      </c>
-      <c r="J18" s="5">
-        <v>3</v>
-      </c>
-      <c r="K18" s="5">
-        <v>5</v>
-      </c>
-      <c r="L18" s="5">
+      <c r="A18" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="4">
+        <v>3</v>
+      </c>
+      <c r="C18" s="4">
+        <v>5</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>2</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>6</v>
+      </c>
+      <c r="H18" s="4">
+        <v>5</v>
+      </c>
+      <c r="I18" s="4">
+        <v>6</v>
+      </c>
+      <c r="J18" s="4">
+        <v>3</v>
+      </c>
+      <c r="K18" s="4">
+        <v>5</v>
+      </c>
+      <c r="L18" s="4">
         <v>8</v>
       </c>
-      <c r="M18" s="5">
-        <v>3</v>
-      </c>
-      <c r="N18" s="5">
-        <v>0</v>
-      </c>
-      <c r="O18" s="5">
+      <c r="M18" s="4">
+        <v>3</v>
+      </c>
+      <c r="N18" s="4">
+        <v>0</v>
+      </c>
+      <c r="O18" s="4">
         <v>5</v>
       </c>
       <c r="P18" t="s">
         <v>58</v>
       </c>
       <c r="Q18" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" s="5">
-        <v>4</v>
-      </c>
-      <c r="C19" s="5">
-        <v>4</v>
-      </c>
-      <c r="D19" s="5">
-        <v>2</v>
-      </c>
-      <c r="E19" s="5">
+      <c r="A19" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="4">
+        <v>4</v>
+      </c>
+      <c r="C19" s="4">
+        <v>4</v>
+      </c>
+      <c r="D19" s="4">
+        <v>2</v>
+      </c>
+      <c r="E19" s="4">
         <v>1</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <v>1</v>
       </c>
-      <c r="G19" s="5">
-        <v>6</v>
-      </c>
-      <c r="H19" s="5">
-        <v>3</v>
-      </c>
-      <c r="I19" s="5">
-        <v>6</v>
-      </c>
-      <c r="J19" s="5">
-        <v>3</v>
-      </c>
-      <c r="K19" s="5">
-        <v>7</v>
-      </c>
-      <c r="L19" s="5">
-        <v>7</v>
-      </c>
-      <c r="M19" s="5">
-        <v>4</v>
-      </c>
-      <c r="N19" s="5">
-        <v>3</v>
-      </c>
-      <c r="O19" s="5">
+      <c r="G19" s="4">
+        <v>6</v>
+      </c>
+      <c r="H19" s="4">
+        <v>3</v>
+      </c>
+      <c r="I19" s="4">
+        <v>6</v>
+      </c>
+      <c r="J19" s="4">
+        <v>3</v>
+      </c>
+      <c r="K19" s="4">
+        <v>7</v>
+      </c>
+      <c r="L19" s="4">
+        <v>7</v>
+      </c>
+      <c r="M19" s="4">
+        <v>4</v>
+      </c>
+      <c r="N19" s="4">
+        <v>3</v>
+      </c>
+      <c r="O19" s="4">
         <v>5</v>
       </c>
       <c r="P19" t="s">
         <v>58</v>
       </c>
       <c r="Q19" t="s">
-        <v>89</v>
-      </c>
-      <c r="R19" s="4" t="s">
-        <v>69</v>
+        <v>85</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B20" s="5">
-        <v>6</v>
-      </c>
-      <c r="C20" s="5">
-        <v>4</v>
-      </c>
-      <c r="D20" s="5">
-        <v>0</v>
-      </c>
-      <c r="E20" s="5">
-        <v>0</v>
-      </c>
-      <c r="F20" s="5">
-        <v>0</v>
-      </c>
-      <c r="G20" s="5">
-        <v>7</v>
-      </c>
-      <c r="H20" s="5">
-        <v>0</v>
-      </c>
-      <c r="I20" s="5">
-        <v>7</v>
-      </c>
-      <c r="J20" s="5">
-        <v>2</v>
-      </c>
-      <c r="K20" s="5">
-        <v>5</v>
-      </c>
-      <c r="L20" s="5">
-        <v>7</v>
-      </c>
-      <c r="M20" s="5">
-        <v>3</v>
-      </c>
-      <c r="N20" s="5">
-        <v>0</v>
-      </c>
-      <c r="O20" s="5">
+      <c r="A20" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="4">
+        <v>6</v>
+      </c>
+      <c r="C20" s="4">
+        <v>4</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
+        <v>7</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <v>7</v>
+      </c>
+      <c r="J20" s="4">
+        <v>2</v>
+      </c>
+      <c r="K20" s="4">
+        <v>5</v>
+      </c>
+      <c r="L20" s="4">
+        <v>7</v>
+      </c>
+      <c r="M20" s="4">
+        <v>3</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0</v>
+      </c>
+      <c r="O20" s="4">
         <v>5</v>
       </c>
       <c r="P20" t="s">
         <v>58</v>
       </c>
       <c r="Q20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B21" s="5">
-        <v>3</v>
-      </c>
-      <c r="C21" s="5">
-        <v>4</v>
-      </c>
-      <c r="D21" s="5">
-        <v>0</v>
-      </c>
-      <c r="E21" s="5">
-        <v>0</v>
-      </c>
-      <c r="F21" s="5">
-        <v>0</v>
-      </c>
-      <c r="G21" s="5">
+      <c r="A21" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="4">
+        <v>3</v>
+      </c>
+      <c r="C21" s="4">
+        <v>4</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
         <v>8</v>
       </c>
-      <c r="H21" s="5">
-        <v>0</v>
-      </c>
-      <c r="I21" s="5">
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
         <v>9</v>
       </c>
-      <c r="J21" s="5">
-        <v>0</v>
-      </c>
-      <c r="K21" s="5">
-        <v>3</v>
-      </c>
-      <c r="L21" s="5">
+      <c r="J21" s="4">
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <v>3</v>
+      </c>
+      <c r="L21" s="4">
         <v>8</v>
       </c>
-      <c r="M21" s="5">
-        <v>5</v>
-      </c>
-      <c r="N21" s="5">
-        <v>4</v>
-      </c>
-      <c r="O21" s="5">
+      <c r="M21" s="4">
+        <v>5</v>
+      </c>
+      <c r="N21" s="4">
+        <v>4</v>
+      </c>
+      <c r="O21" s="4">
         <v>8</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>60</v>
+        <v>137</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="R21" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="R21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="S21" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="T21" s="4" t="s">
+      <c r="S21" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="T21" s="3" t="s">
         <v>55</v>
       </c>
       <c r="U21" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B22" s="5">
-        <v>5</v>
-      </c>
-      <c r="C22" s="5">
-        <v>3</v>
-      </c>
-      <c r="D22" s="5">
-        <v>0</v>
-      </c>
-      <c r="E22" s="5">
-        <v>0</v>
-      </c>
-      <c r="F22" s="5">
-        <v>0</v>
-      </c>
-      <c r="G22" s="5">
-        <v>7</v>
-      </c>
-      <c r="H22" s="5">
-        <v>0</v>
-      </c>
-      <c r="I22" s="5">
-        <v>7</v>
-      </c>
-      <c r="J22" s="5">
-        <v>2</v>
-      </c>
-      <c r="K22" s="5">
-        <v>5</v>
-      </c>
-      <c r="L22" s="5">
-        <v>7</v>
-      </c>
-      <c r="M22" s="5">
-        <v>5</v>
-      </c>
-      <c r="N22" s="5">
-        <v>0</v>
-      </c>
-      <c r="O22" s="5">
+      <c r="A22" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="4">
+        <v>5</v>
+      </c>
+      <c r="C22" s="4">
+        <v>3</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <v>7</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4">
+        <v>7</v>
+      </c>
+      <c r="J22" s="4">
+        <v>2</v>
+      </c>
+      <c r="K22" s="4">
+        <v>5</v>
+      </c>
+      <c r="L22" s="4">
+        <v>7</v>
+      </c>
+      <c r="M22" s="4">
+        <v>5</v>
+      </c>
+      <c r="N22" s="4">
+        <v>0</v>
+      </c>
+      <c r="O22" s="4">
         <v>7</v>
       </c>
       <c r="P22" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q22" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q22" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="R22" s="4" t="s">
+      <c r="R22" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S22" s="4" t="s">
+      <c r="S22" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="T22" s="4" t="s">
+      <c r="T22" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B23" s="5">
-        <v>3</v>
-      </c>
-      <c r="C23" s="5">
-        <v>5</v>
-      </c>
-      <c r="D23" s="5">
-        <v>2</v>
-      </c>
-      <c r="E23" s="5">
-        <v>2</v>
-      </c>
-      <c r="F23" s="5">
+      <c r="A23" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="4">
+        <v>3</v>
+      </c>
+      <c r="C23" s="4">
+        <v>5</v>
+      </c>
+      <c r="D23" s="4">
+        <v>2</v>
+      </c>
+      <c r="E23" s="4">
+        <v>2</v>
+      </c>
+      <c r="F23" s="4">
         <v>1</v>
       </c>
-      <c r="G23" s="5">
-        <v>6</v>
-      </c>
-      <c r="H23" s="5">
-        <v>4</v>
-      </c>
-      <c r="I23" s="5">
-        <v>6</v>
-      </c>
-      <c r="J23" s="5">
-        <v>3</v>
-      </c>
-      <c r="K23" s="5">
-        <v>3</v>
-      </c>
-      <c r="L23" s="5">
-        <v>7</v>
-      </c>
-      <c r="M23" s="5">
-        <v>4</v>
-      </c>
-      <c r="N23" s="5">
-        <v>4</v>
-      </c>
-      <c r="O23" s="5">
+      <c r="G23" s="4">
+        <v>6</v>
+      </c>
+      <c r="H23" s="4">
+        <v>4</v>
+      </c>
+      <c r="I23" s="4">
+        <v>6</v>
+      </c>
+      <c r="J23" s="4">
+        <v>3</v>
+      </c>
+      <c r="K23" s="4">
+        <v>3</v>
+      </c>
+      <c r="L23" s="4">
+        <v>7</v>
+      </c>
+      <c r="M23" s="4">
+        <v>4</v>
+      </c>
+      <c r="N23" s="4">
+        <v>4</v>
+      </c>
+      <c r="O23" s="4">
         <v>5</v>
       </c>
       <c r="P23" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q23" s="4" t="s">
-        <v>69</v>
+        <v>85</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B24" s="5">
-        <v>4</v>
-      </c>
-      <c r="C24" s="5">
-        <v>2</v>
-      </c>
-      <c r="D24" s="5">
-        <v>0</v>
-      </c>
-      <c r="E24" s="5">
-        <v>0</v>
-      </c>
-      <c r="F24" s="5">
-        <v>0</v>
-      </c>
-      <c r="G24" s="5">
-        <v>6</v>
-      </c>
-      <c r="H24" s="5">
+      <c r="A24" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="4">
+        <v>4</v>
+      </c>
+      <c r="C24" s="4">
+        <v>2</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4">
+        <v>6</v>
+      </c>
+      <c r="H24" s="4">
         <v>1</v>
       </c>
-      <c r="I24" s="5">
-        <v>5</v>
-      </c>
-      <c r="J24" s="5">
-        <v>5</v>
-      </c>
-      <c r="K24" s="5">
-        <v>5</v>
-      </c>
-      <c r="L24" s="5">
-        <v>5</v>
-      </c>
-      <c r="M24" s="5">
-        <v>3</v>
-      </c>
-      <c r="N24" s="5">
-        <v>5</v>
-      </c>
-      <c r="O24" s="5">
+      <c r="I24" s="4">
+        <v>5</v>
+      </c>
+      <c r="J24" s="4">
+        <v>5</v>
+      </c>
+      <c r="K24" s="4">
+        <v>5</v>
+      </c>
+      <c r="L24" s="4">
+        <v>5</v>
+      </c>
+      <c r="M24" s="4">
+        <v>3</v>
+      </c>
+      <c r="N24" s="4">
+        <v>5</v>
+      </c>
+      <c r="O24" s="4">
         <v>5</v>
       </c>
       <c r="P24" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="Q24" t="s">
         <v>58</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>60</v>
+        <v>137</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="T24" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="T24" s="3" t="s">
         <v>57</v>
       </c>
       <c r="U24" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="V24" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B25" s="5">
-        <v>7</v>
-      </c>
-      <c r="C25" s="5">
-        <v>4</v>
-      </c>
-      <c r="D25" s="5">
+      <c r="A25" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="4">
+        <v>7</v>
+      </c>
+      <c r="C25" s="4">
+        <v>4</v>
+      </c>
+      <c r="D25" s="4">
         <v>1</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="4">
         <v>1</v>
       </c>
-      <c r="F25" s="5">
-        <v>0</v>
-      </c>
-      <c r="G25" s="5">
-        <v>6</v>
-      </c>
-      <c r="H25" s="5">
-        <v>0</v>
-      </c>
-      <c r="I25" s="5">
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
+        <v>6</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4">
         <v>8</v>
       </c>
-      <c r="J25" s="5">
-        <v>2</v>
-      </c>
-      <c r="K25" s="5">
-        <v>6</v>
-      </c>
-      <c r="L25" s="5">
-        <v>7</v>
-      </c>
-      <c r="M25" s="5">
-        <v>5</v>
-      </c>
-      <c r="N25" s="5">
-        <v>0</v>
-      </c>
-      <c r="O25" s="5">
+      <c r="J25" s="4">
+        <v>2</v>
+      </c>
+      <c r="K25" s="4">
+        <v>6</v>
+      </c>
+      <c r="L25" s="4">
+        <v>7</v>
+      </c>
+      <c r="M25" s="4">
+        <v>5</v>
+      </c>
+      <c r="N25" s="4">
+        <v>0</v>
+      </c>
+      <c r="O25" s="4">
         <v>5</v>
       </c>
       <c r="P25" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="Q25" t="s">
-        <v>106</v>
-      </c>
-      <c r="R25" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="R25" s="3" t="s">
         <v>56</v>
       </c>
       <c r="S25" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B26" s="5">
-        <v>5</v>
-      </c>
-      <c r="C26" s="5">
-        <v>2</v>
-      </c>
-      <c r="D26" s="5">
-        <v>0</v>
-      </c>
-      <c r="E26" s="5">
-        <v>0</v>
-      </c>
-      <c r="F26" s="5">
-        <v>0</v>
-      </c>
-      <c r="G26" s="5">
-        <v>3</v>
-      </c>
-      <c r="H26" s="5">
-        <v>0</v>
-      </c>
-      <c r="I26" s="5">
-        <v>7</v>
-      </c>
-      <c r="J26" s="5">
-        <v>2</v>
-      </c>
-      <c r="K26" s="5">
-        <v>4</v>
-      </c>
-      <c r="L26" s="5">
-        <v>6</v>
-      </c>
-      <c r="M26" s="5">
-        <v>3</v>
-      </c>
-      <c r="N26" s="5">
-        <v>0</v>
-      </c>
-      <c r="O26" s="5">
+      <c r="A26" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" s="4">
+        <v>5</v>
+      </c>
+      <c r="C26" s="4">
+        <v>2</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4">
+        <v>3</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0</v>
+      </c>
+      <c r="I26" s="4">
+        <v>7</v>
+      </c>
+      <c r="J26" s="4">
+        <v>2</v>
+      </c>
+      <c r="K26" s="4">
+        <v>4</v>
+      </c>
+      <c r="L26" s="4">
+        <v>6</v>
+      </c>
+      <c r="M26" s="4">
+        <v>3</v>
+      </c>
+      <c r="N26" s="4">
+        <v>0</v>
+      </c>
+      <c r="O26" s="4">
         <v>3</v>
       </c>
       <c r="P26" t="s">
         <v>58</v>
       </c>
       <c r="Q26" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="R26" t="s">
-        <v>106</v>
-      </c>
-      <c r="S26" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="S26" s="3" t="s">
         <v>56</v>
       </c>
       <c r="T26" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B27" s="5">
-        <v>3</v>
-      </c>
-      <c r="C27" s="5">
-        <v>5</v>
-      </c>
-      <c r="D27" s="5">
+      <c r="A27" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="4">
+        <v>3</v>
+      </c>
+      <c r="C27" s="4">
+        <v>5</v>
+      </c>
+      <c r="D27" s="4">
         <v>1</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="4">
         <v>1</v>
       </c>
-      <c r="F27" s="5">
-        <v>0</v>
-      </c>
-      <c r="G27" s="5">
-        <v>6</v>
-      </c>
-      <c r="H27" s="5">
-        <v>0</v>
-      </c>
-      <c r="I27" s="5">
-        <v>7</v>
-      </c>
-      <c r="J27" s="5">
-        <v>2</v>
-      </c>
-      <c r="K27" s="5">
-        <v>5</v>
-      </c>
-      <c r="L27" s="5">
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
+      <c r="G27" s="4">
+        <v>6</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
+      <c r="I27" s="4">
+        <v>7</v>
+      </c>
+      <c r="J27" s="4">
+        <v>2</v>
+      </c>
+      <c r="K27" s="4">
+        <v>5</v>
+      </c>
+      <c r="L27" s="4">
         <v>8</v>
       </c>
-      <c r="M27" s="5">
-        <v>4</v>
-      </c>
-      <c r="N27" s="5">
-        <v>3</v>
-      </c>
-      <c r="O27" s="5">
+      <c r="M27" s="4">
+        <v>4</v>
+      </c>
+      <c r="N27" s="4">
+        <v>3</v>
+      </c>
+      <c r="O27" s="4">
         <v>5</v>
       </c>
       <c r="P27" t="s">
         <v>58</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>60</v>
+        <v>137</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="S27" s="4" t="s">
-        <v>69</v>
+        <v>136</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B28" s="5">
-        <v>2</v>
-      </c>
-      <c r="C28" s="5">
-        <v>4</v>
-      </c>
-      <c r="D28" s="5">
-        <v>0</v>
-      </c>
-      <c r="E28" s="5">
-        <v>0</v>
-      </c>
-      <c r="F28" s="5">
-        <v>0</v>
-      </c>
-      <c r="G28" s="5">
-        <v>5</v>
-      </c>
-      <c r="H28" s="5">
-        <v>0</v>
-      </c>
-      <c r="I28" s="5">
-        <v>6</v>
-      </c>
-      <c r="J28" s="5">
-        <v>2</v>
-      </c>
-      <c r="K28" s="5">
-        <v>7</v>
-      </c>
-      <c r="L28" s="5">
+      <c r="A28" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="4">
+        <v>2</v>
+      </c>
+      <c r="C28" s="4">
+        <v>4</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0</v>
+      </c>
+      <c r="G28" s="4">
+        <v>5</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0</v>
+      </c>
+      <c r="I28" s="4">
+        <v>6</v>
+      </c>
+      <c r="J28" s="4">
+        <v>2</v>
+      </c>
+      <c r="K28" s="4">
+        <v>7</v>
+      </c>
+      <c r="L28" s="4">
         <v>8</v>
       </c>
-      <c r="M28" s="5">
-        <v>4</v>
-      </c>
-      <c r="N28" s="5">
-        <v>0</v>
-      </c>
-      <c r="O28" s="5">
+      <c r="M28" s="4">
+        <v>4</v>
+      </c>
+      <c r="N28" s="4">
+        <v>0</v>
+      </c>
+      <c r="O28" s="4">
         <v>4</v>
       </c>
       <c r="P28" t="s">
         <v>58</v>
       </c>
       <c r="Q28" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B29" s="5">
-        <v>2</v>
-      </c>
-      <c r="C29" s="5">
-        <v>4</v>
-      </c>
-      <c r="D29" s="5">
-        <v>0</v>
-      </c>
-      <c r="E29" s="5">
+      <c r="A29" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" s="4">
+        <v>2</v>
+      </c>
+      <c r="C29" s="4">
+        <v>4</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4">
         <v>1</v>
       </c>
-      <c r="F29" s="5">
-        <v>0</v>
-      </c>
-      <c r="G29" s="5">
-        <v>6</v>
-      </c>
-      <c r="H29" s="5">
-        <v>0</v>
-      </c>
-      <c r="I29" s="5">
-        <v>7</v>
-      </c>
-      <c r="J29" s="5">
-        <v>2</v>
-      </c>
-      <c r="K29" s="5">
-        <v>5</v>
-      </c>
-      <c r="L29" s="5">
+      <c r="F29" s="4">
+        <v>0</v>
+      </c>
+      <c r="G29" s="4">
+        <v>6</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0</v>
+      </c>
+      <c r="I29" s="4">
+        <v>7</v>
+      </c>
+      <c r="J29" s="4">
+        <v>2</v>
+      </c>
+      <c r="K29" s="4">
+        <v>5</v>
+      </c>
+      <c r="L29" s="4">
         <v>8</v>
       </c>
-      <c r="M29" s="5">
-        <v>6</v>
-      </c>
-      <c r="N29" s="5">
-        <v>2</v>
-      </c>
-      <c r="O29" s="5">
+      <c r="M29" s="4">
+        <v>6</v>
+      </c>
+      <c r="N29" s="4">
+        <v>2</v>
+      </c>
+      <c r="O29" s="4">
         <v>6</v>
       </c>
       <c r="P29" t="s">
         <v>58</v>
       </c>
       <c r="Q29" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>60</v>
+        <v>137</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B30" s="5">
+      <c r="A30" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" s="4">
         <v>1</v>
       </c>
-      <c r="C30" s="5">
-        <v>4</v>
-      </c>
-      <c r="D30" s="5">
-        <v>2</v>
-      </c>
-      <c r="E30" s="5">
+      <c r="C30" s="4">
+        <v>4</v>
+      </c>
+      <c r="D30" s="4">
+        <v>2</v>
+      </c>
+      <c r="E30" s="4">
         <v>1</v>
       </c>
-      <c r="F30" s="5">
-        <v>0</v>
-      </c>
-      <c r="G30" s="5">
-        <v>7</v>
-      </c>
-      <c r="H30" s="5">
-        <v>3</v>
-      </c>
-      <c r="I30" s="5">
-        <v>7</v>
-      </c>
-      <c r="J30" s="5">
-        <v>2</v>
-      </c>
-      <c r="K30" s="5">
-        <v>5</v>
-      </c>
-      <c r="L30" s="5">
+      <c r="F30" s="4">
+        <v>0</v>
+      </c>
+      <c r="G30" s="4">
+        <v>7</v>
+      </c>
+      <c r="H30" s="4">
+        <v>3</v>
+      </c>
+      <c r="I30" s="4">
+        <v>7</v>
+      </c>
+      <c r="J30" s="4">
+        <v>2</v>
+      </c>
+      <c r="K30" s="4">
+        <v>5</v>
+      </c>
+      <c r="L30" s="4">
         <v>8</v>
       </c>
-      <c r="M30" s="5">
-        <v>6</v>
-      </c>
-      <c r="N30" s="5">
-        <v>2</v>
-      </c>
-      <c r="O30" s="5">
+      <c r="M30" s="4">
+        <v>6</v>
+      </c>
+      <c r="N30" s="4">
+        <v>2</v>
+      </c>
+      <c r="O30" s="4">
         <v>6</v>
       </c>
       <c r="P30" t="s">
         <v>58</v>
       </c>
       <c r="Q30" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>60</v>
+        <v>137</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="T30" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B31" s="5">
-        <v>2</v>
-      </c>
-      <c r="C31" s="5">
-        <v>3</v>
-      </c>
-      <c r="D31" s="5">
-        <v>0</v>
-      </c>
-      <c r="E31" s="5">
-        <v>0</v>
-      </c>
-      <c r="F31" s="5">
-        <v>0</v>
-      </c>
-      <c r="G31" s="5">
-        <v>4</v>
-      </c>
-      <c r="H31" s="5">
-        <v>3</v>
-      </c>
-      <c r="I31" s="5">
-        <v>6</v>
-      </c>
-      <c r="J31" s="5">
-        <v>4</v>
-      </c>
-      <c r="K31" s="5">
-        <v>4</v>
-      </c>
-      <c r="L31" s="5">
+      <c r="A31" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="4">
+        <v>2</v>
+      </c>
+      <c r="C31" s="4">
+        <v>3</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0</v>
+      </c>
+      <c r="G31" s="4">
+        <v>4</v>
+      </c>
+      <c r="H31" s="4">
+        <v>3</v>
+      </c>
+      <c r="I31" s="4">
+        <v>6</v>
+      </c>
+      <c r="J31" s="4">
+        <v>4</v>
+      </c>
+      <c r="K31" s="4">
+        <v>4</v>
+      </c>
+      <c r="L31" s="4">
         <v>8</v>
       </c>
-      <c r="M31" s="5">
-        <v>2</v>
-      </c>
-      <c r="N31" s="5">
+      <c r="M31" s="4">
+        <v>2</v>
+      </c>
+      <c r="N31" s="4">
         <v>1</v>
       </c>
-      <c r="O31" s="5">
-        <v>3</v>
-      </c>
-      <c r="P31" s="4" t="s">
-        <v>111</v>
+      <c r="O31" s="4">
+        <v>3</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="Q31" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" s="4">
+        <v>2</v>
+      </c>
+      <c r="C32" s="4">
+        <v>4</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1</v>
+      </c>
+      <c r="E32" s="4">
+        <v>1</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0</v>
+      </c>
+      <c r="G32" s="4">
+        <v>5</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0</v>
+      </c>
+      <c r="I32" s="4">
+        <v>7</v>
+      </c>
+      <c r="J32" s="4">
+        <v>3</v>
+      </c>
+      <c r="K32" s="4">
+        <v>4</v>
+      </c>
+      <c r="L32" s="4">
+        <v>0</v>
+      </c>
+      <c r="M32" s="4">
+        <v>5</v>
+      </c>
+      <c r="N32" s="4">
+        <v>0</v>
+      </c>
+      <c r="O32" s="4">
+        <v>4</v>
+      </c>
+      <c r="P32" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" s="4">
+        <v>2</v>
+      </c>
+      <c r="C33" s="4">
+        <v>3</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1</v>
+      </c>
+      <c r="E33" s="4">
+        <v>1</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0</v>
+      </c>
+      <c r="G33" s="4">
+        <v>7</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0</v>
+      </c>
+      <c r="I33" s="4">
+        <v>7</v>
+      </c>
+      <c r="J33" s="4">
+        <v>2</v>
+      </c>
+      <c r="K33" s="4">
+        <v>7</v>
+      </c>
+      <c r="L33" s="4">
+        <v>8</v>
+      </c>
+      <c r="M33" s="4">
+        <v>5</v>
+      </c>
+      <c r="N33" s="4">
+        <v>4</v>
+      </c>
+      <c r="O33" s="4">
+        <v>6</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S33" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U33" t="s">
+        <v>94</v>
+      </c>
+      <c r="V33" t="s">
+        <v>115</v>
+      </c>
+      <c r="W33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B32" s="5">
-        <v>2</v>
-      </c>
-      <c r="C32" s="5">
-        <v>4</v>
-      </c>
-      <c r="D32" s="5">
+      <c r="B34" s="4">
         <v>1</v>
       </c>
-      <c r="E32" s="5">
+      <c r="C34" s="4">
+        <v>2</v>
+      </c>
+      <c r="D34" s="4">
         <v>1</v>
       </c>
-      <c r="F32" s="5">
-        <v>0</v>
-      </c>
-      <c r="G32" s="5">
-        <v>5</v>
-      </c>
-      <c r="H32" s="5">
-        <v>0</v>
-      </c>
-      <c r="I32" s="5">
-        <v>7</v>
-      </c>
-      <c r="J32" s="5">
-        <v>3</v>
-      </c>
-      <c r="K32" s="5">
-        <v>4</v>
-      </c>
-      <c r="L32" s="5">
-        <v>0</v>
-      </c>
-      <c r="M32" s="5">
-        <v>5</v>
-      </c>
-      <c r="N32" s="5">
-        <v>0</v>
-      </c>
-      <c r="O32" s="5">
-        <v>4</v>
-      </c>
-      <c r="P32" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q32" s="4" t="s">
+      <c r="E34" s="4">
+        <v>1</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0</v>
+      </c>
+      <c r="G34" s="4">
+        <v>4</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0</v>
+      </c>
+      <c r="I34" s="4">
+        <v>7</v>
+      </c>
+      <c r="J34" s="4">
+        <v>2</v>
+      </c>
+      <c r="K34" s="4">
+        <v>5</v>
+      </c>
+      <c r="L34" s="4">
+        <v>8</v>
+      </c>
+      <c r="M34" s="4">
+        <v>3</v>
+      </c>
+      <c r="N34" s="4">
+        <v>3</v>
+      </c>
+      <c r="O34" s="4">
+        <v>4</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="R34" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B35" s="4">
+        <v>2</v>
+      </c>
+      <c r="C35" s="4">
+        <v>2</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4">
+        <v>3</v>
+      </c>
+      <c r="G35" s="4">
+        <v>4</v>
+      </c>
+      <c r="H35" s="4">
+        <v>1</v>
+      </c>
+      <c r="I35" s="4">
+        <v>9</v>
+      </c>
+      <c r="J35" s="4">
+        <v>1</v>
+      </c>
+      <c r="K35" s="4">
+        <v>2</v>
+      </c>
+      <c r="L35" s="4">
+        <v>8</v>
+      </c>
+      <c r="M35" s="4">
+        <v>3</v>
+      </c>
+      <c r="N35" s="4">
+        <v>3</v>
+      </c>
+      <c r="O35" s="4">
+        <v>4</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q35" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36" s="4">
+        <v>1</v>
+      </c>
+      <c r="C36" s="4">
+        <v>2</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0</v>
+      </c>
+      <c r="E36" s="4">
+        <v>1</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0</v>
+      </c>
+      <c r="G36" s="4">
+        <v>3</v>
+      </c>
+      <c r="H36" s="4">
+        <v>0</v>
+      </c>
+      <c r="I36" s="4">
+        <v>7</v>
+      </c>
+      <c r="J36" s="4">
+        <v>2</v>
+      </c>
+      <c r="K36" s="4">
+        <v>2</v>
+      </c>
+      <c r="L36" s="4">
+        <v>8</v>
+      </c>
+      <c r="M36" s="4">
+        <v>4</v>
+      </c>
+      <c r="N36" s="4">
+        <v>5</v>
+      </c>
+      <c r="O36" s="4">
+        <v>3</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="R36" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S36" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" s="4">
+        <v>2</v>
+      </c>
+      <c r="C37" s="4">
+        <v>2</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0</v>
+      </c>
+      <c r="F37" s="4">
+        <v>0</v>
+      </c>
+      <c r="G37" s="4">
+        <v>7</v>
+      </c>
+      <c r="H37" s="4">
+        <v>2</v>
+      </c>
+      <c r="I37" s="4">
+        <v>5</v>
+      </c>
+      <c r="J37" s="4">
+        <v>5</v>
+      </c>
+      <c r="K37" s="4">
+        <v>3</v>
+      </c>
+      <c r="L37" s="4">
+        <v>7</v>
+      </c>
+      <c r="M37" s="4">
+        <v>5</v>
+      </c>
+      <c r="N37" s="4">
+        <v>5</v>
+      </c>
+      <c r="O37" s="4">
+        <v>6</v>
+      </c>
+      <c r="P37" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B38" s="4">
+        <v>3</v>
+      </c>
+      <c r="C38" s="4">
+        <v>2</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0</v>
+      </c>
+      <c r="F38" s="4">
+        <v>0</v>
+      </c>
+      <c r="G38" s="4">
+        <v>8</v>
+      </c>
+      <c r="H38" s="4">
+        <v>5</v>
+      </c>
+      <c r="I38" s="4">
+        <v>5</v>
+      </c>
+      <c r="J38" s="4">
+        <v>5</v>
+      </c>
+      <c r="K38" s="4">
+        <v>3</v>
+      </c>
+      <c r="L38" s="4">
+        <v>7</v>
+      </c>
+      <c r="M38" s="4">
+        <v>6</v>
+      </c>
+      <c r="N38" s="4">
+        <v>5</v>
+      </c>
+      <c r="O38" s="4">
+        <v>7</v>
+      </c>
+      <c r="P38" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B39" s="4">
+        <v>2</v>
+      </c>
+      <c r="C39" s="4">
+        <v>4</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0</v>
+      </c>
+      <c r="F39" s="4">
+        <v>0</v>
+      </c>
+      <c r="G39" s="4">
+        <v>7</v>
+      </c>
+      <c r="H39" s="4">
+        <v>0</v>
+      </c>
+      <c r="I39" s="4">
+        <v>6</v>
+      </c>
+      <c r="J39" s="4">
+        <v>4</v>
+      </c>
+      <c r="K39" s="4">
+        <v>2</v>
+      </c>
+      <c r="L39" s="4">
+        <v>8</v>
+      </c>
+      <c r="M39" s="4">
+        <v>5</v>
+      </c>
+      <c r="N39" s="4">
+        <v>5</v>
+      </c>
+      <c r="O39" s="4">
+        <v>6</v>
+      </c>
+      <c r="P39" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q39" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B40" s="4">
+        <v>2</v>
+      </c>
+      <c r="C40" s="4">
+        <v>4</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0</v>
+      </c>
+      <c r="F40" s="4">
+        <v>0</v>
+      </c>
+      <c r="G40" s="4">
+        <v>7</v>
+      </c>
+      <c r="H40" s="4">
+        <v>3</v>
+      </c>
+      <c r="I40" s="4">
+        <v>6</v>
+      </c>
+      <c r="J40" s="4">
+        <v>4</v>
+      </c>
+      <c r="K40" s="4">
+        <v>4</v>
+      </c>
+      <c r="L40" s="4">
+        <v>8</v>
+      </c>
+      <c r="M40" s="4">
+        <v>6</v>
+      </c>
+      <c r="N40" s="4">
+        <v>5</v>
+      </c>
+      <c r="O40" s="4">
+        <v>6</v>
+      </c>
+      <c r="P40" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R40" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" s="4">
+        <v>4</v>
+      </c>
+      <c r="C41" s="4">
+        <v>3</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0</v>
+      </c>
+      <c r="F41" s="4">
+        <v>0</v>
+      </c>
+      <c r="G41" s="4">
+        <v>8</v>
+      </c>
+      <c r="H41" s="4">
+        <v>0</v>
+      </c>
+      <c r="I41" s="4">
+        <v>6</v>
+      </c>
+      <c r="J41" s="4">
+        <v>4</v>
+      </c>
+      <c r="K41" s="4">
+        <v>3</v>
+      </c>
+      <c r="L41" s="4">
+        <v>8</v>
+      </c>
+      <c r="M41" s="4">
+        <v>7</v>
+      </c>
+      <c r="N41" s="4">
+        <v>4</v>
+      </c>
+      <c r="O41" s="4">
+        <v>8</v>
+      </c>
+      <c r="P41" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>131</v>
+      </c>
+      <c r="R41" t="s">
+        <v>132</v>
+      </c>
+      <c r="S41" t="s">
+        <v>133</v>
+      </c>
+      <c r="T41" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="U41" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="V41" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="W41" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X41" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B33" s="5">
-        <v>2</v>
-      </c>
-      <c r="C33" s="5">
-        <v>3</v>
-      </c>
-      <c r="D33" s="5">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B42" s="4">
+        <v>4</v>
+      </c>
+      <c r="C42" s="4">
+        <v>3</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0</v>
+      </c>
+      <c r="E42" s="4">
         <v>1</v>
       </c>
-      <c r="E33" s="5">
+      <c r="F42" s="4">
+        <v>0</v>
+      </c>
+      <c r="G42" s="4">
+        <v>8</v>
+      </c>
+      <c r="H42" s="4">
+        <v>0</v>
+      </c>
+      <c r="I42" s="4">
+        <v>7</v>
+      </c>
+      <c r="J42" s="4">
+        <v>3</v>
+      </c>
+      <c r="K42" s="4">
+        <v>2</v>
+      </c>
+      <c r="L42" s="4">
+        <v>8</v>
+      </c>
+      <c r="M42" s="4">
+        <v>6</v>
+      </c>
+      <c r="N42" s="4">
+        <v>5</v>
+      </c>
+      <c r="O42" s="4">
+        <v>7</v>
+      </c>
+      <c r="P42" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B43" s="4">
+        <v>2</v>
+      </c>
+      <c r="C43" s="4">
+        <v>3</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0</v>
+      </c>
+      <c r="F43" s="4">
+        <v>0</v>
+      </c>
+      <c r="G43" s="4">
+        <v>4</v>
+      </c>
+      <c r="H43" s="4">
+        <v>0</v>
+      </c>
+      <c r="I43" s="4">
+        <v>9</v>
+      </c>
+      <c r="J43" s="4">
         <v>1</v>
       </c>
-      <c r="F33" s="5">
-        <v>0</v>
-      </c>
-      <c r="G33" s="5">
-        <v>7</v>
-      </c>
-      <c r="H33" s="5">
-        <v>0</v>
-      </c>
-      <c r="I33" s="5">
-        <v>7</v>
-      </c>
-      <c r="J33" s="5">
-        <v>2</v>
-      </c>
-      <c r="K33" s="5">
-        <v>7</v>
-      </c>
-      <c r="L33" s="5">
+      <c r="K43" s="4">
+        <v>2</v>
+      </c>
+      <c r="L43" s="4">
         <v>8</v>
       </c>
-      <c r="M33" s="5">
-        <v>5</v>
-      </c>
-      <c r="N33" s="5">
-        <v>4</v>
-      </c>
-      <c r="O33" s="5">
-        <v>6</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q33" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="R33" s="4" t="s">
+      <c r="M43" s="4">
+        <v>3</v>
+      </c>
+      <c r="N43" s="4">
+        <v>3</v>
+      </c>
+      <c r="O43" s="4">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="R43" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="S43" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="S33" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="T33" s="4" t="s">
+      <c r="T43" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="U33" t="s">
-        <v>98</v>
-      </c>
-      <c r="V33" t="s">
-        <v>119</v>
-      </c>
-      <c r="W33" t="s">
-        <v>120</v>
-      </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B34" s="5">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B44" s="4">
+        <v>4</v>
+      </c>
+      <c r="C44" s="4">
+        <v>4</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0</v>
+      </c>
+      <c r="E44" s="4">
         <v>1</v>
       </c>
-      <c r="C34" s="5">
-        <v>2</v>
-      </c>
-      <c r="D34" s="5">
-        <v>1</v>
-      </c>
-      <c r="E34" s="5">
-        <v>1</v>
-      </c>
-      <c r="F34" s="5">
-        <v>0</v>
-      </c>
-      <c r="G34" s="5">
-        <v>4</v>
-      </c>
-      <c r="H34" s="5">
-        <v>0</v>
-      </c>
-      <c r="I34" s="5">
-        <v>7</v>
-      </c>
-      <c r="J34" s="5">
-        <v>2</v>
-      </c>
-      <c r="K34" s="5">
-        <v>5</v>
-      </c>
-      <c r="L34" s="5">
+      <c r="F44" s="4">
+        <v>0</v>
+      </c>
+      <c r="G44" s="4">
         <v>8</v>
       </c>
-      <c r="M34" s="5">
-        <v>3</v>
-      </c>
-      <c r="N34" s="5">
-        <v>3</v>
-      </c>
-      <c r="O34" s="5">
-        <v>4</v>
-      </c>
-      <c r="P34" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q34" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="R34" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B35" s="5">
-        <v>2</v>
-      </c>
-      <c r="C35" s="5">
-        <v>2</v>
-      </c>
-      <c r="D35" s="5">
-        <v>0</v>
-      </c>
-      <c r="E35" s="5">
-        <v>0</v>
-      </c>
-      <c r="F35" s="5">
-        <v>3</v>
-      </c>
-      <c r="G35" s="5">
-        <v>4</v>
-      </c>
-      <c r="H35" s="5">
-        <v>1</v>
-      </c>
-      <c r="I35" s="5">
-        <v>9</v>
-      </c>
-      <c r="J35" s="5">
-        <v>1</v>
-      </c>
-      <c r="K35" s="5">
-        <v>2</v>
-      </c>
-      <c r="L35" s="5">
+      <c r="H44" s="4">
+        <v>0</v>
+      </c>
+      <c r="I44" s="4">
         <v>8</v>
       </c>
-      <c r="M35" s="5">
-        <v>3</v>
-      </c>
-      <c r="N35" s="5">
-        <v>3</v>
-      </c>
-      <c r="O35" s="5">
-        <v>4</v>
-      </c>
-      <c r="P35" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q35" s="6" t="s">
-        <v>124</v>
+      <c r="J44" s="4">
+        <v>2</v>
+      </c>
+      <c r="K44" s="4">
+        <v>4</v>
+      </c>
+      <c r="L44" s="4">
+        <v>8</v>
+      </c>
+      <c r="M44" s="4">
+        <v>7</v>
+      </c>
+      <c r="N44" s="4">
+        <v>4</v>
+      </c>
+      <c r="O44" s="4">
+        <v>7</v>
+      </c>
+      <c r="P44" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>145</v>
+      </c>
+      <c r="R44" t="s">
+        <v>146</v>
+      </c>
+      <c r="S44" t="s">
+        <v>147</v>
+      </c>
+      <c r="T44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U44" t="s">
+        <v>148</v>
+      </c>
+      <c r="V44" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="W44" t="s">
+        <v>90</v>
+      </c>
+      <c r="X44" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
